--- a/biology/Zoologie/Choconsaurus/Choconsaurus.xlsx
+++ b/biology/Zoologie/Choconsaurus/Choconsaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Choconsaurus baileywillisi
 Choconsaurus (« lézard de El Chocón ») est un genre éteint de dinosaure sauropode, un titanosaure basal. Il a vécu en Amérique du Sud au début du Crétacé supérieur (Cénomanien), soit il y a environ entre 100,5 et 93,9 millions d'années. Le nom du genre fait référence à sa découverte à Villa El Chocón en Argentine. 
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des restes de fossiles ont été trouvés dans la province de Neuquén, en Argentine. Ils proviennent de la formation géologique de Huincul[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des restes de fossiles ont été trouvés dans la province de Neuquén, en Argentine. Ils proviennent de la formation géologique de Huincul.
 Ils sont composés d'un squelette sans crâne ; des vertèbres du cou, du dos et de la queue ont été bien préservées.
 </t>
         </is>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dans leur description , les inventeurs de l'espèce décrivent plusieurs autapomorphies[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans leur description , les inventeurs de l'espèce décrivent plusieurs autapomorphies :
 la bordure supérieure de la face arrière de l'articulation postérieure des vertèbres cervicales est très peu développée ;
 les premières vertèbres portent de très grandes protubérances secondaires des deux côtés de l'hyposphène ;
 les vertèbres centrales et postérieures portent une crête supplémentaire en arrière de la crête postérieure qui s'étend de la saillie latérale au corps vertébral, et la crête secondaire parallèle à la crête principale ;
